--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43699,6 +43699,41 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43734,6 +43734,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43769,6 +43769,43 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43806,6 +43806,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43843,6 +43843,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43878,6 +43878,43 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43915,6 +43915,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43952,6 +43952,41 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>26800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43987,6 +43987,43 @@
         <v>26800</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44024,6 +44024,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44061,6 +44061,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44098,6 +44098,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44135,6 +44135,78 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>7200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44207,6 +44207,78 @@
         <v>7200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44279,6 +44279,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44316,6 +44316,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44351,6 +44351,43 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44388,6 +44388,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>20937532</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44423,6 +44423,80 @@
         <v>20937532</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44497,6 +44497,41 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44532,6 +44532,43 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2424"/>
+  <dimension ref="A1:I2425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86324,6 +86324,43 @@
         </is>
       </c>
     </row>
+    <row r="2425">
+      <c r="A2425" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2425" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2425" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2425" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2425" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2425" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2425"/>
+  <dimension ref="A1:I2426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86361,6 +86361,43 @@
         </is>
       </c>
     </row>
+    <row r="2426">
+      <c r="A2426" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2426" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2426" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2426" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2426" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2426" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2426"/>
+  <dimension ref="A1:I2427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86398,6 +86398,43 @@
         </is>
       </c>
     </row>
+    <row r="2427">
+      <c r="A2427" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2427" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2427" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2427" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2427" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2427" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2427"/>
+  <dimension ref="A1:I2428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86435,6 +86435,41 @@
         </is>
       </c>
     </row>
+    <row r="2428">
+      <c r="A2428" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2428" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2428" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2428" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2428" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2428" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2428"/>
+  <dimension ref="A1:I2429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86470,6 +86470,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2429" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2429" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2429" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2429" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2429" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2429"/>
+  <dimension ref="A1:I2430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86507,6 +86507,43 @@
         </is>
       </c>
     </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2430" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2430" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2430" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2430" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2430" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2430"/>
+  <dimension ref="A1:I2431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86544,6 +86544,43 @@
         </is>
       </c>
     </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2431" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2431" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2431" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2431" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2431"/>
+  <dimension ref="A1:I2432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86581,6 +86581,43 @@
         </is>
       </c>
     </row>
+    <row r="2432">
+      <c r="A2432" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2432" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2432" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2432" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2432" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2432" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2432"/>
+  <dimension ref="A1:I2433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86618,6 +86618,41 @@
         </is>
       </c>
     </row>
+    <row r="2433">
+      <c r="A2433" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2433" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2433" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2433" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2433" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2433" t="n">
+        <v>14300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2433"/>
+  <dimension ref="A1:I2434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86653,6 +86653,41 @@
         <v>14300</v>
       </c>
     </row>
+    <row r="2434">
+      <c r="A2434" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2434" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2434" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2434" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2434" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2434" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2434"/>
+  <dimension ref="A1:I2435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86688,6 +86688,43 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="2435">
+      <c r="A2435" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2435" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2435" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2435" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2435" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2435" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2435"/>
+  <dimension ref="A1:I2436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86725,6 +86725,41 @@
         </is>
       </c>
     </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2436" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2436" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2436" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2436" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2436"/>
+  <dimension ref="A1:I2437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86760,6 +86760,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2437" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2437" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2437" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2437" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2437"/>
+  <dimension ref="A1:I2438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86795,6 +86795,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2438" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2438" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2438" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2438" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6904.xlsx
+++ b/data/6904.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2438"/>
+  <dimension ref="A1:I2439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86832,6 +86832,43 @@
         </is>
       </c>
     </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>SUBUR</t>
+        </is>
+      </c>
+      <c r="E2439" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2439" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2439" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2439" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
